--- a/Prediction/possible_MB.xlsx
+++ b/Prediction/possible_MB.xlsx
@@ -389,12 +389,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P0CG47</t>
+          <t>P22314</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['UBB']</t>
+          <t>['UBA1 A1S9T UBE1']</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -407,16 +407,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>P00441</t>
+          <t>P0CG47</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['SOD1']</t>
+          <t>['UBB']</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -425,16 +425,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Q93045</t>
+          <t>Q08431</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['STMN2 SCG10 SCGN10']</t>
+          <t>['MFGE8']</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -443,12 +443,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>P06748</t>
+          <t>P29966</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['NPM1 NPM']</t>
+          <t>['MARCKS MACS PRKCSL']</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -461,12 +461,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>P08729</t>
+          <t>P55209</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['KRT7 SCL']</t>
+          <t>['NAP1L1 NRP']</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -479,12 +479,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>P40925</t>
+          <t>P17931</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['MDH1 MDHA']</t>
+          <t>['LGALS3 MAC2']</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -497,16 +497,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>P17931</t>
+          <t>P26038</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['LGALS3 MAC2']</t>
+          <t>['MSN']</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -515,12 +515,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Q02750</t>
+          <t>P08648</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['MAP2K1 MEK1 PRKMK1']</t>
+          <t>['ITGA5 FNRA']</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -533,16 +533,16 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Q15233</t>
+          <t>P12268</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['NONO NRB54']</t>
+          <t>['IMPDH2 IMPD2']</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -551,12 +551,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Q14847</t>
+          <t>P13647</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['LASP1 MLN50']</t>
+          <t>['KRT5']</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -569,16 +569,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>P00338</t>
+          <t>Q01650</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['LDHA PIG19']</t>
+          <t>['SLC7A5 CD98LC LAT1 MPE16']</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -587,16 +587,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>P60660</t>
+          <t>P00338</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['MYL6']</t>
+          <t>['LDHA PIG19']</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -605,12 +605,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>P08238</t>
+          <t>P30086</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['HSP90AB1 HSP90B HSPC2 HSPCB']</t>
+          <t>['PEBP1 PBP PEBP']</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -623,12 +623,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>P17661</t>
+          <t>P04792</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['DES']</t>
+          <t>['HSPB1 HSP27 HSP28']</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -641,12 +641,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>P17980</t>
+          <t>P11142</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['PSMC3 TBP1']</t>
+          <t>['HSPA8 HSC70 HSP73 HSPA10']</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -659,16 +659,16 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>P62750</t>
+          <t>P61978</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>['RPL23A']</t>
+          <t>['HNRNPK HNRPK']</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -677,12 +677,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>O43663</t>
+          <t>P60981</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>['PRC1']</t>
+          <t>['DSTN ACTDP DSN']</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -695,12 +695,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>P30044</t>
+          <t>P61353</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['PRDX5 ACR1 SBBI10']</t>
+          <t>['RPL27']</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -713,12 +713,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>P32119</t>
+          <t>P05186</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>['PRDX2 NKEFB TDPX1']</t>
+          <t>['ALPL']</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -731,12 +731,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>P62333</t>
+          <t>O43663</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>['PSMC6 SUG2']</t>
+          <t>['PRC1']</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -749,12 +749,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>P62191</t>
+          <t>P62913</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>['PSMC1']</t>
+          <t>['RPL11']</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -767,12 +767,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>O95613</t>
+          <t>P13797</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>['PCNT KIAA0402 PCNT2']</t>
+          <t>['PLS3']</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -785,12 +785,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Q12931</t>
+          <t>P09493</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>['TRAP1 HSP75']</t>
+          <t>['TPM1 C15orf13 TMSA']</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -803,12 +803,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>P07951</t>
+          <t>P08865</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>['TPM2 TMSB']</t>
+          <t>['RPSA LAMBR LAMR1']</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -821,12 +821,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>P62081</t>
+          <t>P23526</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>['RPS7']</t>
+          <t>['AHCY SAHH']</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -839,12 +839,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>P31948</t>
+          <t>P62280</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>['STIP1']</t>
+          <t>['RPS11']</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -857,12 +857,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Q8IZP2</t>
+          <t>P62851</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>['ST13P4 FAM10A4']</t>
+          <t>['RPS25']</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -875,12 +875,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Q2M296</t>
+          <t>P60866</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>['MTHFSD']</t>
+          <t>['RPS20']</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -893,16 +893,16 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>P30050</t>
+          <t>Q14141</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>['RPL12']</t>
+          <t>['SEPT6 KIAA0128 SEP2']</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -911,12 +911,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>P08865</t>
+          <t>Q9Y490</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>['RPSA LAMBR LAMR1']</t>
+          <t>['TLN1 KIAA1027 TLN']</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -929,16 +929,16 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>P62847</t>
+          <t>P10599</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>['RPS24']</t>
+          <t>['TXN TRDX TRX TRX1']</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -947,12 +947,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>P15880</t>
+          <t>P02788</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>['RPS2 RPS4']</t>
+          <t>['LTF GIG12 LF']</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -965,16 +965,16 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Q16881</t>
+          <t>P07437</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>['TXNRD1 GRIM12 KDRF']</t>
+          <t>['TUBB TUBB5 OK/SW-cl.56']</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -983,16 +983,16 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>P21796</t>
+          <t>P68363</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>['VDAC1 VDAC']</t>
+          <t>['TUBA1B']</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1001,16 +1001,16 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>P08670</t>
+          <t>P50990</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>['VIM']</t>
+          <t>['CCT8 C21orf112 CCTQ KIAA0002']</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1019,12 +1019,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>P13693</t>
+          <t>P26639</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>['TPT1']</t>
+          <t>['TARS']</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1037,16 +1037,16 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>P37802</t>
+          <t>P68366</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>['TAGLN2 KIAA0120 CDABP0035']</t>
+          <t>['TUBA4A TUBA1']</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1055,12 +1055,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>P50990</t>
+          <t>O75083</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>['CCT8 C21orf112 CCTQ KIAA0002']</t>
+          <t>['WDR1']</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1073,12 +1073,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>P68371</t>
+          <t>P53999</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>['TUBB4B TUBB2C']</t>
+          <t>['SUB1 PC4 RPO2TC1']</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1091,16 +1091,16 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>P26639</t>
+          <t>P78371</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>['TARS']</t>
+          <t>['CCT2 99D8.1 CCTB']</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1109,16 +1109,16 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>O75083</t>
+          <t>P55072</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>['WDR1']</t>
+          <t>['VCP']</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1127,16 +1127,16 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>P78371</t>
+          <t>P02786</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>['CCT2 99D8.1 CCTB']</t>
+          <t>['TFRC']</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1145,16 +1145,16 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>P55072</t>
+          <t>P17987</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>['VCP']</t>
+          <t>['TCP1 CCT1 CCTA']</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1163,16 +1163,16 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>O75347</t>
+          <t>O43854</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>['TBCA']</t>
+          <t>['EDIL3 DEL1']</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1181,16 +1181,16 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>P29401</t>
+          <t>P02649</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>['TKT']</t>
+          <t>['APOE']</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1199,16 +1199,16 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>P24534</t>
+          <t>Q5T655</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>['EEF1B2 EEF1B EF1B']</t>
+          <t>['CFAP58 C10orf80 CCDC147']</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1217,16 +1217,16 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>O43852</t>
+          <t>Q6NZI2</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>['CALU']</t>
+          <t>['CAVIN1 PTRF FKSG13']</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -1235,12 +1235,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Q5T655</t>
+          <t>P47755</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>['CFAP58 C10orf80 CCDC147']</t>
+          <t>['CAPZA2']</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -1253,16 +1253,16 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>P47755</t>
+          <t>Q16543</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>['CAPZA2']</t>
+          <t>['CDC37 CDC37A']</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Q16543</t>
+          <t>P0DP23</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>['CDC37 CDC37A']</t>
+          <t>['CALM1 CALM CAM CAM1']</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -1289,16 +1289,16 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>P08758</t>
+          <t>P15121</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>['ANXA5 ANX5 ENX2 PP4']</t>
+          <t>['AKR1B1 ALDR1 ALR2']</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1307,16 +1307,16 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>P61604</t>
+          <t>A6NMY6</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>['HSPE1']</t>
+          <t>['ANXA2P2 ANX2L2 ANX2P2 LPC2B']</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -1325,12 +1325,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>P19338</t>
+          <t>P25705</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>['NCL']</t>
+          <t>['ATP5F1A ATP5A ATP5A1 ATP5AL2 ATPM']</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>P61247</t>
+          <t>P06576</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>['RPS3A FTE1 MFTL']</t>
+          <t>['ATP5F1B ATP5B ATPMB ATPSB']</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -1379,16 +1379,16 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>P62861</t>
+          <t>P18621</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>['FAU']</t>
+          <t>['RPL17']</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1397,12 +1397,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>P18621</t>
+          <t>P61224</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>['RPL17']</t>
+          <t>['RAP1B OK/SW-cl.11']</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -1415,16 +1415,16 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>P61224</t>
+          <t>Q02878</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>['RAP1B OK/SW-cl.11']</t>
+          <t>['RPL6 TXREB1']</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1451,16 +1451,16 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>P50914</t>
+          <t>P62937</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>['RPL14']</t>
+          <t>['PPIA CYPA']</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -1469,16 +1469,16 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>P62714</t>
+          <t>P00558</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>['PPP2CB']</t>
+          <t>['PGK1 PGKA MIG10 OK/SW-cl.110']</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1487,16 +1487,16 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>P62937</t>
+          <t>P18124</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>['PPIA CYPA']</t>
+          <t>['RPL7']</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1505,16 +1505,16 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Q04941</t>
+          <t>P62917</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>['PLP2 A4']</t>
+          <t>['RPL8']</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -1523,16 +1523,16 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>P00558</t>
+          <t>P12814</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>['PGK1 PGKA MIG10 OK/SW-cl.110']</t>
+          <t>['ACTN1']</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -1541,16 +1541,16 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>P62917</t>
+          <t>Q09666</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>['RPL8']</t>
+          <t>['AHNAK PM227']</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1559,16 +1559,16 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>P12814</t>
+          <t>P62258</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>['ACTN1']</t>
+          <t>['YWHAE']</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1577,12 +1577,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>P00330</t>
+          <t>P12429</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>['ADH1 ADC1 YOL086C O0947']</t>
+          <t>['ANXA3 ANX3']</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -1595,16 +1595,16 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>P12429</t>
+          <t>P25054</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>['ANXA3 ANX3']</t>
+          <t>['APC DP2.5']</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -1613,12 +1613,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>P08133</t>
+          <t>P31947</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>['ANXA6 ANX6']</t>
+          <t>['SFN HME1']</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -1631,12 +1631,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>P25054</t>
+          <t>P27348</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>['APC DP2.5']</t>
+          <t>['YWHAQ']</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -1649,16 +1649,16 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>P61981</t>
+          <t>P61204</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>['YWHAG']</t>
+          <t>['ARF3']</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -1667,16 +1667,16 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Q04917</t>
+          <t>P54709</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>['YWHAH YWHA1']</t>
+          <t>['ATP1B3']</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -1685,12 +1685,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>P08195</t>
+          <t>P35613</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>['SLC3A2 MDU1']</t>
+          <t>['BSG UNQ6505/PRO21383']</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -1703,12 +1703,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>P31947</t>
+          <t>P11940</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>['SFN HME1']</t>
+          <t>['PABPC1 PAB1 PABP1 PABPC2']</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -1721,12 +1721,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>P27348</t>
+          <t>O14818</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>['YWHAQ']</t>
+          <t>['PSMA7 HSPC']</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -1739,12 +1739,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>P61204</t>
+          <t>P31939</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>['ARF3']</t>
+          <t>['ATIC PURH OK/SW-cl.86']</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -1757,12 +1757,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>P10909</t>
+          <t>P49207</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>['CLU APOJ CLI KUB1 AAG4']</t>
+          <t>['RPL34']</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -1775,16 +1775,16 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>O00299</t>
+          <t>P20742</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>['CLIC1 G6 NCC27']</t>
+          <t>['PZP CPAMD6']</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -1793,16 +1793,16 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Q460N5</t>
+          <t>P46778</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>['PARP14 BAL2 KIAA1268']</t>
+          <t>['RPL21']</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -1811,12 +1811,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>P46776</t>
+          <t>P52565</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>['RPL27A']</t>
+          <t>['ARHGDIA GDIA1']</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -1829,16 +1829,16 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>P28072</t>
+          <t>Q16658</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>['PSMB6 LMPY Y']</t>
+          <t>['FSCN1 FAN1 HSN SNL']</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -1847,12 +1847,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>P35241</t>
+          <t>P63096</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>['RDX']</t>
+          <t>['GNAI1']</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -1865,16 +1865,16 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>P46778</t>
+          <t>P38405</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>['RPL21']</t>
+          <t>['GNAL']</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -1883,12 +1883,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>P63241</t>
+          <t>P02042</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>['EIF5A']</t>
+          <t>['HBD']</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -1901,12 +1901,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Q16658</t>
+          <t>P68431</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>['FSCN1 FAN1 HSN SNL']</t>
+          <t>['HIST1H3A H3FA', 'HIST1H3B H3FL', 'HIST1H3C H3FC', 'HIST1H3D H3FB', 'HIST1H3E H3FD', 'HIST1H3F H3FI', 'HIST1H3G H3FH', 'HIST1H3H H3FK', 'HIST1H3I H3FF', 'HIST1H3J H3FJ']</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -1919,12 +1919,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>P04908</t>
+          <t>P15311</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>['HIST1H2AB H2AFM', 'HIST1H2AE H2AFA']</t>
+          <t>['EZR VIL2']</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -1937,16 +1937,16 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>O60814</t>
+          <t>P13929</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>['HIST1H2BK H2BFT HIRIP1']</t>
+          <t>['ENO3']</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -1955,16 +1955,16 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>P02008</t>
+          <t>P15170</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>['HBZ HBZ2']</t>
+          <t>['GSPT1 ERF3A']</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -1973,12 +1973,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>P02533</t>
+          <t>P02771</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>['KRT14']</t>
+          <t>['AFP HPAFP']</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -1991,12 +1991,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>P05783</t>
+          <t>P10809</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>['KRT18 CYK18 PIG46']</t>
+          <t>['HSPD1 HSP60']</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -2009,12 +2009,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>P02042</t>
+          <t>P35908</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>['HBD']</t>
+          <t>['KRT2 KRT2A KRT2E']</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -2027,12 +2027,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Q96A08</t>
+          <t>P35527</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>['HIST1H2BA TSH2B']</t>
+          <t>['KRT9']</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -2045,12 +2045,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>P14625</t>
+          <t>Q7Z794</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>['HSP90B1 GRP94 TRA1']</t>
+          <t>['KRT77 KRT1B']</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -2063,12 +2063,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>P06733</t>
+          <t>P13639</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>['ENO1 ENO1L1 MBPB1 MPB1']</t>
+          <t>['EEF2 EF2']</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -2081,12 +2081,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>P68104</t>
+          <t>P29692</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>['EEF1A1 EEF1A EF1A LENG7']</t>
+          <t>['EEF1D EF1D']</t>
         </is>
       </c>
       <c r="D96" t="n">
@@ -2099,12 +2099,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>P29692</t>
+          <t>P06744</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>['EEF1D EF1D']</t>
+          <t>['GPI']</t>
         </is>
       </c>
       <c r="D97" t="n">
@@ -2117,16 +2117,16 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>P06744</t>
+          <t>P26641</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>['GPI']</t>
+          <t>['EEF1G EF1G PRO1608']</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -2135,12 +2135,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>P49327</t>
+          <t>P49773</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>['FASN FAS']</t>
+          <t>['HINT1 HINT PKCI1 PRKCNH1']</t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -2171,16 +2171,16 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>P02765</t>
+          <t>P00742</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>['AHSG FETUA PRO2743']</t>
+          <t>['F10']</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -2189,16 +2189,16 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Q08431</t>
+          <t>Q15029</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>['MFGE8']</t>
+          <t>['EFTUD2 KIAA0031 SNRP116']</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -2207,16 +2207,16 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>O94851</t>
+          <t>P00760</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>['MICAL2 KIAA0750 MICAL2PV1 MICAL2PV2']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -2225,12 +2225,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Q16819</t>
+          <t>P00441</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>['MEP1A']</t>
+          <t>['SOD1']</t>
         </is>
       </c>
       <c r="D104" t="n">
@@ -2243,12 +2243,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>P09382</t>
+          <t>Q93045</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>['LGALS1']</t>
+          <t>['STMN2 SCG10 SCGN10']</t>
         </is>
       </c>
       <c r="D105" t="n">
@@ -2261,12 +2261,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>P26038</t>
+          <t>O94851</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>['MSN']</t>
+          <t>['MICAL2 KIAA0750 MICAL2PV1 MICAL2PV2']</t>
         </is>
       </c>
       <c r="D106" t="n">
@@ -2279,16 +2279,16 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>P05787</t>
+          <t>P51884</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>['KRT8 CYK8']</t>
+          <t>['LUM LDC SLRR2D']</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -2297,16 +2297,16 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>P26006</t>
+          <t>P08729</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>['ITGA3 MSK18']</t>
+          <t>['KRT7 SCL']</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -2315,16 +2315,16 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>P08648</t>
+          <t>P26006</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>['ITGA5 FNRA']</t>
+          <t>['ITGA3 MSK18']</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -2333,16 +2333,16 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Q06033</t>
+          <t>P19823</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>['ITIH3']</t>
+          <t>['ITIH2 IGHEP2']</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -2369,12 +2369,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>P48668</t>
+          <t>P15531</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>['KRT6C KRT6E']</t>
+          <t>['NME1 NDPKA NM23']</t>
         </is>
       </c>
       <c r="D112" t="n">
@@ -2387,12 +2387,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>P15531</t>
+          <t>Q6P0N0</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>['NME1 NDPKA NM23']</t>
+          <t>['MIS18BP1 C14orf106 KIAA1903 KNL2 M18BP1']</t>
         </is>
       </c>
       <c r="D113" t="n">
@@ -2405,12 +2405,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Q6P0N0</t>
+          <t>Q04760</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>['MIS18BP1 C14orf106 KIAA1903 KNL2 M18BP1']</t>
+          <t>['GLO1']</t>
         </is>
       </c>
       <c r="D114" t="n">
@@ -2423,16 +2423,16 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Q02241</t>
+          <t>P60660</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>['KIF23 KNSL5 MKLP1']</t>
+          <t>['MYL6']</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -2441,12 +2441,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Q04760</t>
+          <t>P30044</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>['GLO1']</t>
+          <t>['PRDX5 ACR1 SBBI10']</t>
         </is>
       </c>
       <c r="D116" t="n">
@@ -2459,12 +2459,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>P02545</t>
+          <t>P30041</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>['LMNA LMN1']</t>
+          <t>['PRDX6 AOP2 KIAA0106']</t>
         </is>
       </c>
       <c r="D117" t="n">
@@ -2477,12 +2477,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>P60981</t>
+          <t>P62333</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>['DSTN ACTDP DSN']</t>
+          <t>['PSMC6 SUG2']</t>
         </is>
       </c>
       <c r="D118" t="n">
@@ -2495,12 +2495,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>P61353</t>
+          <t>P62191</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>['RPL27']</t>
+          <t>['PSMC1']</t>
         </is>
       </c>
       <c r="D119" t="n">
@@ -2513,12 +2513,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Q9Y266</t>
+          <t>P35998</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>['NUDC']</t>
+          <t>['PSMC2 MSS1']</t>
         </is>
       </c>
       <c r="D120" t="n">
@@ -2531,12 +2531,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Q96I25</t>
+          <t>P60174</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>['RBM17 SPF45']</t>
+          <t>['TPI1 TPI']</t>
         </is>
       </c>
       <c r="D121" t="n">
@@ -2549,16 +2549,16 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>P67936</t>
+          <t>P62269</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>['TPM4']</t>
+          <t>['RPS18 D6S218E']</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -2567,16 +2567,16 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>P60174</t>
+          <t>P31949</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>['TPI1 TPI']</t>
+          <t>['S100A11 MLN70 S100C']</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -2585,12 +2585,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>P62241</t>
+          <t>P62424</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>['RPS8 OK/SW-cl.83']</t>
+          <t>['RPL7A SURF-3 SURF3']</t>
         </is>
       </c>
       <c r="D124" t="n">
@@ -2603,16 +2603,16 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>P62857</t>
+          <t>Q01105</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>['RPS28']</t>
+          <t>['SET']</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -2621,16 +2621,16 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>P62753</t>
+          <t>P09651</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>['RPS6 OK/SW-cl.2']</t>
+          <t>['HNRNPA1 HNRPA1']</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -2639,12 +2639,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>P23526</t>
+          <t>Q16881</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>['AHCY SAHH']</t>
+          <t>['TXNRD1 GRIM12 KDRF']</t>
         </is>
       </c>
       <c r="D127" t="n">
@@ -2675,12 +2675,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>P62280</t>
+          <t>Q8IZP2</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>['RPS11']</t>
+          <t>['ST13P4 FAM10A4']</t>
         </is>
       </c>
       <c r="D129" t="n">
@@ -2693,12 +2693,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>P60866</t>
+          <t>P36952</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>['RPS20']</t>
+          <t>['SERPINB5 PI5']</t>
         </is>
       </c>
       <c r="D130" t="n">
@@ -2711,16 +2711,16 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Q9Y490</t>
+          <t>P40227</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>['TLN1 KIAA1027 TLN']</t>
+          <t>['CCT6A CCT6 CCTZ']</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -2729,12 +2729,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Q14247</t>
+          <t>P18206</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>['CTTN EMS1']</t>
+          <t>['VCL']</t>
         </is>
       </c>
       <c r="D132" t="n">
@@ -2747,12 +2747,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>P40227</t>
+          <t>P21796</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>['CCT6A CCT6 CCTZ']</t>
+          <t>['VDAC1 VDAC']</t>
         </is>
       </c>
       <c r="D133" t="n">
@@ -2765,16 +2765,16 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>P02788</t>
+          <t>P08670</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>['LTF GIG12 LF']</t>
+          <t>['VIM']</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -2783,12 +2783,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>P18206</t>
+          <t>P13693</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>['VCL']</t>
+          <t>['TPT1']</t>
         </is>
       </c>
       <c r="D135" t="n">
@@ -2801,12 +2801,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Q01995</t>
+          <t>Q9Y228</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>['TAGLN SM22 WS3-10']</t>
+          <t>['TRAF3IP3 T3JAM']</t>
         </is>
       </c>
       <c r="D136" t="n">
@@ -2819,12 +2819,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Q9Y228</t>
+          <t>Q6ZQQ6</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>['TRAF3IP3 T3JAM']</t>
+          <t>['WDR87']</t>
         </is>
       </c>
       <c r="D137" t="n">
@@ -2837,12 +2837,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Q6ZQQ6</t>
+          <t>P50991</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>['WDR87']</t>
+          <t>['CCT4 CCTD SRB']</t>
         </is>
       </c>
       <c r="D138" t="n">
@@ -2855,16 +2855,16 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>P04004</t>
+          <t>P48643</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>['VTN']</t>
+          <t>['CCT5 CCTE KIAA0098']</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -2873,12 +2873,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>P48643</t>
+          <t>P29401</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>['CCT5 CCTE KIAA0098']</t>
+          <t>['TKT']</t>
         </is>
       </c>
       <c r="D140" t="n">
@@ -2891,16 +2891,16 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Q9HB71</t>
+          <t>P49368</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>['CACYBP S100A6BP SIP PNAS-107']</t>
+          <t>['CCT3 CCTG TRIC5']</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -2909,16 +2909,16 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>P02649</t>
+          <t>O43852</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>['APOE']</t>
+          <t>['CALU']</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -2927,12 +2927,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>P16070</t>
+          <t>Q05682</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>['CD44 LHR MDU2 MDU3 MIC4']</t>
+          <t>['CALD1 CAD CDM']</t>
         </is>
       </c>
       <c r="D143" t="n">
@@ -2945,16 +2945,16 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>P13987</t>
+          <t>P52907</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>['CD59 MIC11 MIN1 MIN2 MIN3 MSK21']</t>
+          <t>['CAPZA1']</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -2963,16 +2963,16 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Q6NZI2</t>
+          <t>Q01518</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>['CAVIN1 PTRF FKSG13']</t>
+          <t>['CAP1 CAP']</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -2981,12 +2981,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>P52907</t>
+          <t>P08758</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>['CAPZA1']</t>
+          <t>['ANXA5 ANX5 ENX2 PP4']</t>
         </is>
       </c>
       <c r="D146" t="n">
@@ -2999,12 +2999,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>P11021</t>
+          <t>O14745</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>['HSPA5 GRP78']</t>
+          <t>['SLC9A3R1 NHERF NHERF1']</t>
         </is>
       </c>
       <c r="D147" t="n">
@@ -3017,16 +3017,16 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>P54289</t>
+          <t>P19338</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>['CACNA2D1 CACNL2A CCHL2A MHS3']</t>
+          <t>['NCL']</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -3035,16 +3035,16 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>P27797</t>
+          <t>P61247</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>['CALR CRTC']</t>
+          <t>['RPS3A FTE1 MFTL']</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -3053,12 +3053,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>P05023</t>
+          <t>P23396</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>['ATP1A1']</t>
+          <t>['RPS3 OK/SW-cl.26']</t>
         </is>
       </c>
       <c r="D150" t="n">
@@ -3071,16 +3071,16 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>P25705</t>
+          <t>P50914</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>['ATP5F1A ATP5A ATP5A1 ATP5AL2 ATPM']</t>
+          <t>['RPL14']</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -3089,16 +3089,16 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Q14019</t>
+          <t>Q04941</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>['COTL1 CLP']</t>
+          <t>['PLP2 A4']</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -3107,12 +3107,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>O14745</t>
+          <t>P53396</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>['SLC9A3R1 NHERF NHERF1']</t>
+          <t>['ACLY']</t>
         </is>
       </c>
       <c r="D153" t="n">
@@ -3125,16 +3125,16 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Q6S8J3</t>
+          <t>P60709</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>['POTEE A26C1A POTE2']</t>
+          <t>['ACTB']</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -3143,16 +3143,16 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>P23396</t>
+          <t>Q562R1</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>['RPS3 OK/SW-cl.26']</t>
+          <t>['ACTBL2']</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -3161,12 +3161,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>O75340</t>
+          <t>O43707</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>['PDCD6 ALG2']</t>
+          <t>['ACTN4']</t>
         </is>
       </c>
       <c r="D156" t="n">
@@ -3179,16 +3179,16 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>P18124</t>
+          <t>P05141</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>['RPL7']</t>
+          <t>['SLC25A5 ANT2']</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -3197,16 +3197,16 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>P68032</t>
+          <t>P00330</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>['ACTC1 ACTC']</t>
+          <t>['ADH1 ADC1 YOL086C O0947']</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -3215,12 +3215,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>P53396</t>
+          <t>P04083</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>['ACLY']</t>
+          <t>['ANXA1 ANX1 LPC1']</t>
         </is>
       </c>
       <c r="D159" t="n">
@@ -3233,16 +3233,16 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>P02768</t>
+          <t>P18085</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>['ALB GIG20 GIG42 PRO0903 PRO1708 PRO2044 PRO2619 PRO2675 UNQ696/PRO1341']</t>
+          <t>['ARF4 ARF2']</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -3251,12 +3251,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>P60709</t>
+          <t>P02647</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>['ACTB']</t>
+          <t>['APOA1']</t>
         </is>
       </c>
       <c r="D161" t="n">
@@ -3269,12 +3269,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>P05141</t>
+          <t>P01008</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>['SLC25A5 ANT2']</t>
+          <t>['SERPINC1 AT3 PRO0309']</t>
         </is>
       </c>
       <c r="D162" t="n">
@@ -3287,12 +3287,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Q09666</t>
+          <t>P01891</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>['AHNAK PM227']</t>
+          <t>['HLA-A HLAA']</t>
         </is>
       </c>
       <c r="D163" t="n">
@@ -3305,16 +3305,16 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>P09525</t>
+          <t>P61981</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>['ANXA4 ANX4']</t>
+          <t>['YWHAG']</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -3323,12 +3323,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>P04075</t>
+          <t>P08195</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>['ALDOA ALDA']</t>
+          <t>['SLC3A2 MDU1']</t>
         </is>
       </c>
       <c r="D165" t="n">
@@ -3341,12 +3341,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Q15758</t>
+          <t>P04439</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>['SLC1A5 ASCT2 M7V1 RDR RDRC']</t>
+          <t>['HLA-A HLAA']</t>
         </is>
       </c>
       <c r="D166" t="n">
@@ -3359,12 +3359,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>P31946</t>
+          <t>P01024</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>['YWHAB']</t>
+          <t>['C3 CPAMD1']</t>
         </is>
       </c>
       <c r="D167" t="n">
@@ -3377,16 +3377,16 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>P63104</t>
+          <t>P09496</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>['YWHAZ']</t>
+          <t>['CLTA']</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -3395,16 +3395,16 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>P01024</t>
+          <t>P10909</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>['C3 CPAMD1']</t>
+          <t>['CLU APOJ CLI KUB1 AAG4']</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -3413,16 +3413,16 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Q8NFC6</t>
+          <t>P23528</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>['BOD1L1 BOD1L FAM44A KIAA1327']</t>
+          <t>['CFL1 CFL']</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -3431,12 +3431,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Q99497</t>
+          <t>Q8NFC6</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>['PARK7']</t>
+          <t>['BOD1L1 BOD1L FAM44A KIAA1327']</t>
         </is>
       </c>
       <c r="D171" t="n">
@@ -3449,12 +3449,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>P83731</t>
+          <t>P07237</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>['RPL24']</t>
+          <t>['P4HB ERBA2L PDI PDIA1 PO4DB']</t>
         </is>
       </c>
       <c r="D172" t="n">
@@ -3467,12 +3467,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>P31939</t>
+          <t>Q99497</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>['ATIC PURH OK/SW-cl.86']</t>
+          <t>['PARK7']</t>
         </is>
       </c>
       <c r="D173" t="n">
@@ -3485,16 +3485,16 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>P62826</t>
+          <t>P15559</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>['RAN ARA24 OK/SW-cl.81']</t>
+          <t>['NQO1 DIA4 NMOR1']</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -3503,12 +3503,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>P42766</t>
+          <t>P26373</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>['RPL35']</t>
+          <t>['RPL13 BBC1 OK/SW-cl.46']</t>
         </is>
       </c>
       <c r="D175" t="n">
@@ -3521,16 +3521,16 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>P62820</t>
+          <t>P83731</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>['RAB1A RAB1']</t>
+          <t>['RPL24']</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -3539,16 +3539,16 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Q15286</t>
+          <t>P28072</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>['RAB35 RAB1C RAY']</t>
+          <t>['PSMB6 LMPY Y']</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -3557,16 +3557,16 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>P52292</t>
+          <t>Q9Y3U8</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>['KPNA2 RCH1 SRP1']</t>
+          <t>['RPL36']</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -3575,12 +3575,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Q14974</t>
+          <t>P35241</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>['KPNB1 NTF97']</t>
+          <t>['RDX']</t>
         </is>
       </c>
       <c r="D179" t="n">
@@ -3593,16 +3593,16 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>P50395</t>
+          <t>P61026</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>['GDI2 RABGDIB']</t>
+          <t>['RAB10']</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -3611,12 +3611,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>P60842</t>
+          <t>Q15286</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>['EIF4A1 DDX2A EIF4A']</t>
+          <t>['RAB35 RAB1C RAY']</t>
         </is>
       </c>
       <c r="D181" t="n">
@@ -3629,12 +3629,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>P63096</t>
+          <t>P04899</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>['GNAI1']</t>
+          <t>['GNAI2 GNAI2B']</t>
         </is>
       </c>
       <c r="D182" t="n">
@@ -3647,12 +3647,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>P38405</t>
+          <t>P06396</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>['GNAL']</t>
+          <t>['GSN']</t>
         </is>
       </c>
       <c r="D183" t="n">
@@ -3665,12 +3665,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Q9H4A6</t>
+          <t>P63241</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>['GOLPH3 GPP34']</t>
+          <t>['EIF5A']</t>
         </is>
       </c>
       <c r="D184" t="n">
@@ -3683,16 +3683,16 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Q58FF8</t>
+          <t>O60814</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>['HSP90AB2P HSP90BB']</t>
+          <t>['HIST1H2BK H2BFT HIRIP1']</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -3701,12 +3701,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>P15311</t>
+          <t>P02008</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>['EZR VIL2']</t>
+          <t>['HBZ HBZ2']</t>
         </is>
       </c>
       <c r="D186" t="n">
@@ -3719,12 +3719,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>P09104</t>
+          <t>Q15181</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>['ENO2']</t>
+          <t>['PPA1 IOPPP PP']</t>
         </is>
       </c>
       <c r="D187" t="n">
@@ -3737,16 +3737,16 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>P15170</t>
+          <t>P08779</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>['GSPT1 ERF3A']</t>
+          <t>['KRT16 KRT16A']</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -3755,16 +3755,16 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>P11166</t>
+          <t>Q58FF8</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>['SLC2A1 GLUT1']</t>
+          <t>['HSP90AB2P HSP90BB']</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -3773,12 +3773,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Q7Z3Z0</t>
+          <t>P69905</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>['KRT25 KRT25A']</t>
+          <t>['HBA1', 'HBA2']</t>
         </is>
       </c>
       <c r="D190" t="n">
@@ -3791,12 +3791,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>P35527</t>
+          <t>Q96A08</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>['KRT9']</t>
+          <t>['HIST1H2BA TSH2B']</t>
         </is>
       </c>
       <c r="D191" t="n">
@@ -3809,12 +3809,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Q5F1R6</t>
+          <t>P13645</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>['DNAJC21 DNAJA5']</t>
+          <t>['KRT10 KPP']</t>
         </is>
       </c>
       <c r="D192" t="n">
@@ -3827,12 +3827,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>P13639</t>
+          <t>P06733</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>['EEF2 EF2']</t>
+          <t>['ENO1 ENO1L1 MBPB1 MPB1']</t>
         </is>
       </c>
       <c r="D193" t="n">
@@ -3845,12 +3845,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Q8WVE0</t>
+          <t>P09104</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>['EEF1AKMT1 N6AMT2']</t>
+          <t>['ENO2']</t>
         </is>
       </c>
       <c r="D194" t="n">
@@ -3863,12 +3863,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>P26641</t>
+          <t>P50238</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>['EEF1G EF1G PRO1608']</t>
+          <t>['CRIP1 CRIP CRP1']</t>
         </is>
       </c>
       <c r="D195" t="n">
@@ -3881,12 +3881,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>O14556</t>
+          <t>P09211</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>['GAPDHS GAPD2 GAPDH2 GAPDS HSD-35 HSD35']</t>
+          <t>['GSTP1 FAEES3 GST3']</t>
         </is>
       </c>
       <c r="D196" t="n">
@@ -3899,12 +3899,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>P49773</t>
+          <t>Q8WVE0</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>['HINT1 HINT PKCI1 PRKCNH1']</t>
+          <t>['EEF1AKMT1 N6AMT2']</t>
         </is>
       </c>
       <c r="D197" t="n">
@@ -3935,12 +3935,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>O15360</t>
+          <t>Q02790</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>['FANCA FAA FACA FANCH']</t>
+          <t>['FKBP4 FKBP52']</t>
         </is>
       </c>
       <c r="D199" t="n">
@@ -3953,16 +3953,16 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>O75369</t>
+          <t>P49327</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>['FLNB FLN1L FLN3 TABP TAP']</t>
+          <t>['FASN FAS']</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
@@ -3971,12 +3971,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>P00742</t>
+          <t>O75369</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>['F10']</t>
+          <t>['FLNB FLN1L FLN3 TABP TAP']</t>
         </is>
       </c>
       <c r="D201" t="n">
@@ -3989,16 +3989,16 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>P22314</t>
+          <t>O15427</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>['UBA1 A1S9T UBE1']</t>
+          <t>['SLC16A3 MCT4']</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
@@ -4007,12 +4007,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Q15029</t>
+          <t>P06748</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>['EFTUD2 KIAA0031 SNRP116']</t>
+          <t>['NPM1 NPM']</t>
         </is>
       </c>
       <c r="D203" t="n">
@@ -4025,12 +4025,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>P00760</t>
+          <t>P04259</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['KRT6B K6B KRTL1']</t>
         </is>
       </c>
       <c r="D204" t="n">
@@ -4043,12 +4043,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>P51884</t>
+          <t>P40925</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>['LUM LDC SLRR2D']</t>
+          <t>['MDH1 MDHA']</t>
         </is>
       </c>
       <c r="D205" t="n">
@@ -4061,16 +4061,16 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>P55209</t>
+          <t>Q16819</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>['NAP1L1 NRP']</t>
+          <t>['MEP1A']</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -4079,12 +4079,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>P05556</t>
+          <t>Q02750</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>['ITGB1 FNRB MDF2 MSK12']</t>
+          <t>['MAP2K1 MEK1 PRKMK1']</t>
         </is>
       </c>
       <c r="D207" t="n">
@@ -4097,16 +4097,16 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>P14618</t>
+          <t>Q06033</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>['PKM OIP3 PK2 PK3 PKM2']</t>
+          <t>['ITIH3']</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -4115,12 +4115,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>P13647</t>
+          <t>P14618</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>['KRT5']</t>
+          <t>['PKM OIP3 PK2 PK3 PKM2']</t>
         </is>
       </c>
       <c r="D209" t="n">
@@ -4133,12 +4133,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Q3SY84</t>
+          <t>Q15233</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>['KRT71 K6IRS1 KB34 KRT6IRS1']</t>
+          <t>['NONO NRB54']</t>
         </is>
       </c>
       <c r="D210" t="n">
@@ -4151,16 +4151,16 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>P40926</t>
+          <t>P02545</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>['MDH2']</t>
+          <t>['LMNA LMN1']</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -4169,16 +4169,16 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>P22392</t>
+          <t>P24844</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>['NME2 NM23B']</t>
+          <t>['MYL9 MLC2 MRLC1 MYRL2']</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -4187,16 +4187,16 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>P07195</t>
+          <t>P07900</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>['LDHB']</t>
+          <t>['HSP90AA1 HSP90A HSPC1 HSPCA']</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -4205,12 +4205,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>P35579</t>
+          <t>P08238</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>['MYH9']</t>
+          <t>['HSP90AB1 HSP90B HSPC2 HSPCB']</t>
         </is>
       </c>
       <c r="D214" t="n">
@@ -4223,12 +4223,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>P30086</t>
+          <t>P0DMV8</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>['PEBP1 PBP PEBP']</t>
+          <t>['HSPA1A HSP72 HSPA1 HSX70']</t>
         </is>
       </c>
       <c r="D215" t="n">
@@ -4241,12 +4241,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>P24844</t>
+          <t>P17661</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>['MYL9 MLC2 MRLC1 MYRL2']</t>
+          <t>['DES']</t>
         </is>
       </c>
       <c r="D216" t="n">
@@ -4259,12 +4259,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>P07900</t>
+          <t>P07737</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>['HSP90AA1 HSP90A HSPC1 HSPCA']</t>
+          <t>['PFN1']</t>
         </is>
       </c>
       <c r="D217" t="n">
@@ -4277,12 +4277,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>P0DMV8</t>
+          <t>P17980</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>['HSPA1A HSP72 HSPA1 HSX70']</t>
+          <t>['PSMC3 TBP1']</t>
         </is>
       </c>
       <c r="D218" t="n">
@@ -4295,16 +4295,16 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>P07737</t>
+          <t>P62750</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>['PFN1']</t>
+          <t>['RPL23A']</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
@@ -4313,12 +4313,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>P61254</t>
+          <t>P62829</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>['RPL26']</t>
+          <t>['RPL23']</t>
         </is>
       </c>
       <c r="D220" t="n">
@@ -4331,12 +4331,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>P05186</t>
+          <t>Q06830</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>['ALPL']</t>
+          <t>['PRDX1 PAGA PAGB TDPX2']</t>
         </is>
       </c>
       <c r="D221" t="n">
@@ -4349,16 +4349,16 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>P30041</t>
+          <t>P32119</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>['PRDX6 AOP2 KIAA0106']</t>
+          <t>['PRDX2 NKEFB TDPX1']</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -4367,12 +4367,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Q06830</t>
+          <t>P30048</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>['PRDX1 PAGA PAGB TDPX2']</t>
+          <t>['PRDX3 AOP1']</t>
         </is>
       </c>
       <c r="D223" t="n">
@@ -4385,16 +4385,16 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Q9H0H5</t>
+          <t>P60900</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>['RACGAP1 KIAA1478 MGCRACGAP']</t>
+          <t>['PSMA6 PROS27']</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
@@ -4403,16 +4403,16 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>P30048</t>
+          <t>O95613</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>['PRDX3 AOP1']</t>
+          <t>['PCNT KIAA0402 PCNT2']</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -4421,16 +4421,16 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>P62913</t>
+          <t>Q12931</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>['RPL11']</t>
+          <t>['TRAP1 HSP75']</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -4439,16 +4439,16 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>P60900</t>
+          <t>P67936</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>['PSMA6 PROS27']</t>
+          <t>['TPM4']</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -4457,16 +4457,16 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>P35998</t>
+          <t>Q8NBM4</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>['PSMC2 MSS1']</t>
+          <t>['UBAC2 PHGDHL1 PSEC0110']</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -4475,16 +4475,16 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>P13797</t>
+          <t>Q2M296</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>['PLS3']</t>
+          <t>['MTHFSD']</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
@@ -4493,12 +4493,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>P36952</t>
+          <t>P30050</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>['SERPINB5 PI5']</t>
+          <t>['RPL12']</t>
         </is>
       </c>
       <c r="D230" t="n">
@@ -4511,16 +4511,16 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>P27105</t>
+          <t>P07951</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>['STOM BND7 EPB72']</t>
+          <t>['TPM2 TMSB']</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
@@ -4529,12 +4529,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>P62269</t>
+          <t>P31948</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>['RPS18 D6S218E']</t>
+          <t>['STIP1']</t>
         </is>
       </c>
       <c r="D232" t="n">
@@ -4547,16 +4547,16 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>P31949</t>
+          <t>P62241</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>['S100A11 MLN70 S100C']</t>
+          <t>['RPS8 OK/SW-cl.83']</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
@@ -4565,12 +4565,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>P26447</t>
+          <t>P15880</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>['S100A4 CAPL MTS1']</t>
+          <t>['RPS2 RPS4']</t>
         </is>
       </c>
       <c r="D234" t="n">
@@ -4583,16 +4583,16 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>P06703</t>
+          <t>P62753</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>['S100A6 CACY']</t>
+          <t>['RPS6 OK/SW-cl.2']</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
@@ -4601,16 +4601,16 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>P22626</t>
+          <t>P26447</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>['HNRNPA2B1 HNRPA2B1']</t>
+          <t>['S100A4 CAPL MTS1']</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
@@ -4619,12 +4619,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>P23246</t>
+          <t>P06703</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>['SFPQ PSF']</t>
+          <t>['S100A6 CACY']</t>
         </is>
       </c>
       <c r="D237" t="n">
@@ -4637,12 +4637,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Q16181</t>
+          <t>P22626</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>['SEPT7 CDC10']</t>
+          <t>['HNRNPA2B1 HNRPA2B1']</t>
         </is>
       </c>
       <c r="D238" t="n">
@@ -4655,12 +4655,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Q14141</t>
+          <t>P23246</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>['SEPT6 KIAA0128 SEP2']</t>
+          <t>['SFPQ PSF']</t>
         </is>
       </c>
       <c r="D239" t="n">
@@ -4673,12 +4673,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Q13509</t>
+          <t>Q15019</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>['TUBB3 TUBB4']</t>
+          <t>['SEPT2 DIFF6 KIAA0158 NEDD5']</t>
         </is>
       </c>
       <c r="D240" t="n">
@@ -4691,12 +4691,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>P07437</t>
+          <t>Q14247</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>['TUBB TUBB5 OK/SW-cl.56']</t>
+          <t>['CTTN EMS1']</t>
         </is>
       </c>
       <c r="D241" t="n">
@@ -4709,12 +4709,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>P68366</t>
+          <t>Q13509</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>['TUBA4A TUBA1']</t>
+          <t>['TUBB3 TUBB4']</t>
         </is>
       </c>
       <c r="D242" t="n">
@@ -4727,12 +4727,12 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>P50991</t>
+          <t>Q01995</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>['CCT4 CCTD SRB']</t>
+          <t>['TAGLN SM22 WS3-10']</t>
         </is>
       </c>
       <c r="D243" t="n">
@@ -4745,12 +4745,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>P53999</t>
+          <t>P04004</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>['SUB1 PC4 RPO2TC1']</t>
+          <t>['VTN']</t>
         </is>
       </c>
       <c r="D244" t="n">
@@ -4763,16 +4763,16 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Q99832</t>
+          <t>O75347</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>['CCT7 CCTH NIP7-1']</t>
+          <t>['TBCA']</t>
         </is>
       </c>
       <c r="D245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
@@ -4781,12 +4781,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>O43854</t>
+          <t>P16070</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>['EDIL3 DEL1']</t>
+          <t>['CD44 LHR MDU2 MDU3 MIC4']</t>
         </is>
       </c>
       <c r="D246" t="n">
@@ -4799,12 +4799,12 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Q05682</t>
+          <t>P13987</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>['CALD1 CAD CDM']</t>
+          <t>['CD59 MIC11 MIN1 MIN2 MIN3 MSK21']</t>
         </is>
       </c>
       <c r="D247" t="n">
@@ -4817,12 +4817,12 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>P0DP23</t>
+          <t>Q07021</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>['CALM1 CALM CAM CAM1']</t>
+          <t>['C1QBP GC1QBP HABP1 SF2P32']</t>
         </is>
       </c>
       <c r="D248" t="n">
@@ -4835,16 +4835,16 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>P11586</t>
+          <t>P11021</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>['MTHFD1 MTHFC MTHFD']</t>
+          <t>['HSPA5 GRP78']</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -4853,12 +4853,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Q01518</t>
+          <t>P11586</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>['CAP1 CAP']</t>
+          <t>['MTHFD1 MTHFC MTHFD']</t>
         </is>
       </c>
       <c r="D250" t="n">
@@ -4871,12 +4871,12 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>P15121</t>
+          <t>P54289</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>['AKR1B1 ALDR1 ALR2']</t>
+          <t>['CACNA2D1 CACNL2A CCHL2A MHS3']</t>
         </is>
       </c>
       <c r="D251" t="n">
@@ -4889,12 +4889,12 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>A6NMY6</t>
+          <t>P27797</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>['ANXA2P2 ANX2L2 ANX2P2 LPC2B']</t>
+          <t>['CALR CRTC']</t>
         </is>
       </c>
       <c r="D252" t="n">
@@ -4907,12 +4907,12 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>P62244</t>
+          <t>P05023</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>['RPS15A OK/SW-cl.82']</t>
+          <t>['ATP1A1']</t>
         </is>
       </c>
       <c r="D253" t="n">
@@ -4925,12 +4925,12 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>P62249</t>
+          <t>P61604</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>['RPS16']</t>
+          <t>['HSPE1']</t>
         </is>
       </c>
       <c r="D254" t="n">
@@ -4943,12 +4943,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Q02878</t>
+          <t>Q6S8J3</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>['RPL6 TXREB1']</t>
+          <t>['POTEE A26C1A POTE2']</t>
         </is>
       </c>
       <c r="D255" t="n">
@@ -4961,12 +4961,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>O00592</t>
+          <t>P62244</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>['PODXL PCLP PCLP1']</t>
+          <t>['RPS15A OK/SW-cl.82']</t>
         </is>
       </c>
       <c r="D256" t="n">
@@ -4979,12 +4979,12 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>P61313</t>
+          <t>P62249</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>['RPL15 EC45 TCBAP0781']</t>
+          <t>['RPS16']</t>
         </is>
       </c>
       <c r="D257" t="n">
@@ -4997,16 +4997,16 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Q562R1</t>
+          <t>O00592</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>['ACTBL2']</t>
+          <t>['PODXL PCLP PCLP1']</t>
         </is>
       </c>
       <c r="D258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
@@ -5015,16 +5015,16 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>O43707</t>
+          <t>P61313</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>['ACTN4']</t>
+          <t>['RPL15 EC45 TCBAP0781']</t>
         </is>
       </c>
       <c r="D259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
@@ -5033,16 +5033,16 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Q9NP58</t>
+          <t>P62714</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>['ABCB6 MTABC3 PRP UMAT']</t>
+          <t>['PPP2CB']</t>
         </is>
       </c>
       <c r="D260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -5051,16 +5051,16 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>P62258</t>
+          <t>O75340</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>['YWHAE']</t>
+          <t>['PDCD6 ALG2']</t>
         </is>
       </c>
       <c r="D261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
@@ -5069,12 +5069,12 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>P09972</t>
+          <t>P30101</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>['ALDOC ALDC']</t>
+          <t>['PDIA3 ERP57 ERP60 GRP58']</t>
         </is>
       </c>
       <c r="D262" t="n">
@@ -5087,12 +5087,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>P18085</t>
+          <t>P05386</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>['ARF4 ARF2']</t>
+          <t>['RPLP1 RRP1']</t>
         </is>
       </c>
       <c r="D263" t="n">
@@ -5105,12 +5105,12 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>P02647</t>
+          <t>P61586</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>['APOA1']</t>
+          <t>['RHOA ARH12 ARHA RHO12']</t>
         </is>
       </c>
       <c r="D264" t="n">
@@ -5123,12 +5123,12 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>P01008</t>
+          <t>P68032</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>['SERPINC1 AT3 PRO0309']</t>
+          <t>['ACTC1 ACTC']</t>
         </is>
       </c>
       <c r="D265" t="n">
@@ -5141,12 +5141,12 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>P04439</t>
+          <t>P02768</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>['HLA-A HLAA']</t>
+          <t>['ALB GIG20 GIG42 PRO0903 PRO1708 PRO2044 PRO2619 PRO2675 UNQ696/PRO1341']</t>
         </is>
       </c>
       <c r="D266" t="n">
@@ -5159,12 +5159,12 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>P01023</t>
+          <t>Q9NP58</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>['A2M CPAMD5 FWP007']</t>
+          <t>['ABCB6 MTABC3 PRP UMAT']</t>
         </is>
       </c>
       <c r="D267" t="n">
@@ -5177,12 +5177,12 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>P09496</t>
+          <t>Q95365</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>['CLTA']</t>
+          <t>['HLA-B HLAB']</t>
         </is>
       </c>
       <c r="D268" t="n">
@@ -5195,12 +5195,12 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>P54709</t>
+          <t>P09972</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>['ATP1B3']</t>
+          <t>['ALDOC ALDC']</t>
         </is>
       </c>
       <c r="D269" t="n">
@@ -5213,16 +5213,16 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>P50993</t>
+          <t>P08133</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>['ATP1A2 KIAA0778']</t>
+          <t>['ANXA6 ANX6']</t>
         </is>
       </c>
       <c r="D270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
@@ -5231,16 +5231,16 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>P23528</t>
+          <t>P04075</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>['CFL1 CFL']</t>
+          <t>['ALDOA ALDA']</t>
         </is>
       </c>
       <c r="D271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
@@ -5249,16 +5249,16 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>P35613</t>
+          <t>Q04917</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>['BSG UNQ6505/PRO21383']</t>
+          <t>['YWHAH YWHA1']</t>
         </is>
       </c>
       <c r="D272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
@@ -5267,12 +5267,12 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Q9UQ80</t>
+          <t>P31946</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>['PA2G4 EBP1']</t>
+          <t>['YWHAB']</t>
         </is>
       </c>
       <c r="D273" t="n">
@@ -5285,16 +5285,16 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Q15366</t>
+          <t>P01023</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>['PCBP2']</t>
+          <t>['A2M CPAMD5 FWP007']</t>
         </is>
       </c>
       <c r="D274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
@@ -5303,16 +5303,16 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>P15559</t>
+          <t>O00299</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>['NQO1 DIA4 NMOR1']</t>
+          <t>['CLIC1 G6 NCC27']</t>
         </is>
       </c>
       <c r="D275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
@@ -5321,16 +5321,16 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>P11940</t>
+          <t>P50993</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>['PABPC1 PAB1 PABP1 PABPC2']</t>
+          <t>['ATP1A2 KIAA0778']</t>
         </is>
       </c>
       <c r="D276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
@@ -5339,16 +5339,16 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>P26373</t>
+          <t>Q9UQ80</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>['RPL13 BBC1 OK/SW-cl.46']</t>
+          <t>['PA2G4 EBP1']</t>
         </is>
       </c>
       <c r="D277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
@@ -5357,16 +5357,16 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>P20742</t>
+          <t>Q15366</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>['PZP CPAMD6']</t>
+          <t>['PCBP2']</t>
         </is>
       </c>
       <c r="D278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -5375,12 +5375,12 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Q9Y3U8</t>
+          <t>P46776</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>['RPL36']</t>
+          <t>['RPL27A']</t>
         </is>
       </c>
       <c r="D279" t="n">
@@ -5393,16 +5393,16 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>P61026</t>
+          <t>P18077</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>['RAB10']</t>
+          <t>['RPL35A GIG33']</t>
         </is>
       </c>
       <c r="D280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
@@ -5411,16 +5411,16 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>P63244</t>
+          <t>P42766</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>['RACK1 GNB2L1 HLC7 PIG21']</t>
+          <t>['RPL35']</t>
         </is>
       </c>
       <c r="D281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
@@ -5429,16 +5429,16 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>P36578</t>
+          <t>P62820</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>['RPL4 RPL1']</t>
+          <t>['RAB1A RAB1']</t>
         </is>
       </c>
       <c r="D282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
@@ -5447,16 +5447,16 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Q15181</t>
+          <t>P51149</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>['PPA1 IOPPP PP']</t>
+          <t>['RAB7A RAB7']</t>
         </is>
       </c>
       <c r="D283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
@@ -5465,12 +5465,12 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>P08779</t>
+          <t>P63244</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>['KRT16 KRT16A']</t>
+          <t>['RACK1 GNB2L1 HLC7 PIG21']</t>
         </is>
       </c>
       <c r="D284" t="n">
@@ -5483,16 +5483,16 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>P69905</t>
+          <t>P36578</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>['HBA1', 'HBA2']</t>
+          <t>['RPL4 RPL1']</t>
         </is>
       </c>
       <c r="D285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
@@ -5501,16 +5501,16 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>P13645</t>
+          <t>Q14974</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>['KRT10 KPP']</t>
+          <t>['KPNB1 NTF97']</t>
         </is>
       </c>
       <c r="D286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -5519,12 +5519,12 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>P38646</t>
+          <t>P60842</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>['HSPA9 GRP75 HSPA9B mt-HSP70']</t>
+          <t>['EIF4A1 DDX2A EIF4A']</t>
         </is>
       </c>
       <c r="D287" t="n">
@@ -5537,12 +5537,12 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>P68431</t>
+          <t>P04908</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>['HIST1H3A H3FA', 'HIST1H3B H3FL', 'HIST1H3C H3FC', 'HIST1H3D H3FB', 'HIST1H3E H3FD', 'HIST1H3F H3FI', 'HIST1H3G H3FH', 'HIST1H3H H3FK', 'HIST1H3I H3FF', 'HIST1H3J H3FJ']</t>
+          <t>['HIST1H2AB H2AFM', 'HIST1H2AE H2AFA']</t>
         </is>
       </c>
       <c r="D288" t="n">
@@ -5555,12 +5555,12 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>P62805</t>
+          <t>P02533</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>['HIST1H4A H4/A H4FA', 'HIST1H4B H4/I H4FI', 'HIST1H4C H4/G H4FG', 'HIST1H4D H4/B H4FB', 'HIST1H4E H4/J H4FJ', 'HIST1H4F H4/C H4FC', 'HIST1H4H H4/H H4FH', 'HIST1H4I H4/M H4FM', 'HIST1H4J H4/E H4FE', 'HIST1H4K H4/D H4FD', 'HIST1H4L H4/K H4FK', 'HIST2H4A H4/N H4F2 H4FN HIST2H4', 'HIST2H4B H4/O H4FO', 'HIST4H4']</t>
+          <t>['KRT14']</t>
         </is>
       </c>
       <c r="D289" t="n">
@@ -5573,12 +5573,12 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>P08727</t>
+          <t>P05783</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>['KRT19']</t>
+          <t>['KRT18 CYK18 PIG46']</t>
         </is>
       </c>
       <c r="D290" t="n">
@@ -5591,16 +5591,16 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>P50502</t>
+          <t>P12277</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>['ST13 AAG2 FAM10A1 HIP SNC6']</t>
+          <t>['CKB CKBB']</t>
         </is>
       </c>
       <c r="D291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
@@ -5609,16 +5609,16 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Q01469</t>
+          <t>P10412</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>['FABP5']</t>
+          <t>['HIST1H1E H1F4']</t>
         </is>
       </c>
       <c r="D292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
@@ -5627,12 +5627,12 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>P02771</t>
+          <t>P38646</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>['AFP HPAFP']</t>
+          <t>['HSPA9 GRP75 HSPA9B mt-HSP70']</t>
         </is>
       </c>
       <c r="D293" t="n">
@@ -5645,16 +5645,16 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>P50238</t>
+          <t>P08727</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>['CRIP1 CRIP CRP1']</t>
+          <t>['KRT19']</t>
         </is>
       </c>
       <c r="D294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
@@ -5663,16 +5663,16 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>P10809</t>
+          <t>P50502</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>['HSPD1 HSP60']</t>
+          <t>['ST13 AAG2 FAM10A1 HIP SNC6']</t>
         </is>
       </c>
       <c r="D295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
@@ -5681,12 +5681,12 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>P35908</t>
+          <t>P12259</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>['KRT2 KRT2A KRT2E']</t>
+          <t>['F5']</t>
         </is>
       </c>
       <c r="D296" t="n">
@@ -5699,12 +5699,12 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Q7Z794</t>
+          <t>Q01469</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>['KRT77 KRT1B']</t>
+          <t>['FABP5']</t>
         </is>
       </c>
       <c r="D297" t="n">
@@ -5717,16 +5717,16 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>P09211</t>
+          <t>Q7Z3Z0</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>['GSTP1 FAEES3 GST3']</t>
+          <t>['KRT25 KRT25A']</t>
         </is>
       </c>
       <c r="D298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
@@ -5735,16 +5735,16 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>P62873</t>
+          <t>Q5F1R6</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>['GNB1']</t>
+          <t>['DNAJC21 DNAJA5']</t>
         </is>
       </c>
       <c r="D299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
@@ -5753,16 +5753,16 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>P04406</t>
+          <t>O14556</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>['GAPDH GAPD CDABP0047 OK/SW-cl.12']</t>
+          <t>['GAPDHS GAPD2 GAPDH2 GAPDS HSD-35 HSD35']</t>
         </is>
       </c>
       <c r="D300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
@@ -5771,16 +5771,16 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Q02790</t>
+          <t>P02765</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>['FKBP4 FKBP52']</t>
+          <t>['AHSG FETUA PRO2743']</t>
         </is>
       </c>
       <c r="D301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
@@ -5789,16 +5789,16 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>O15427</t>
+          <t>P05556</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>['SLC16A3 MCT4']</t>
+          <t>['ITGB1 FNRB MDF2 MSK12']</t>
         </is>
       </c>
       <c r="D302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
@@ -5807,12 +5807,12 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>P29966</t>
+          <t>P09382</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>['MARCKS MACS PRKCSL']</t>
+          <t>['LGALS1']</t>
         </is>
       </c>
       <c r="D303" t="n">
@@ -5825,16 +5825,16 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>P04259</t>
+          <t>P05787</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>['KRT6B K6B KRTL1']</t>
+          <t>['KRT8 CYK8']</t>
         </is>
       </c>
       <c r="D304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
@@ -5843,12 +5843,12 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>P19823</t>
+          <t>P48668</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>['ITIH2 IGHEP2']</t>
+          <t>['KRT6C KRT6E']</t>
         </is>
       </c>
       <c r="D305" t="n">
@@ -5861,16 +5861,16 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>P12268</t>
+          <t>Q3SY84</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>['IMPDH2 IMPD2']</t>
+          <t>['KRT71 K6IRS1 KB34 KRT6IRS1']</t>
         </is>
       </c>
       <c r="D306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
@@ -5879,12 +5879,12 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Q01650</t>
+          <t>P40926</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>['SLC7A5 CD98LC LAT1 MPE16']</t>
+          <t>['MDH2']</t>
         </is>
       </c>
       <c r="D307" t="n">
@@ -5897,16 +5897,16 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>P04792</t>
+          <t>P22392</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>['HSPB1 HSP27 HSP28']</t>
+          <t>['NME2 NM23B']</t>
         </is>
       </c>
       <c r="D308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309">
@@ -5915,16 +5915,16 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>P11142</t>
+          <t>Q14847</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>['HSPA8 HSC70 HSP73 HSPA10']</t>
+          <t>['LASP1 MLN50']</t>
         </is>
       </c>
       <c r="D309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310">
@@ -5933,16 +5933,16 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>P61978</t>
+          <t>P07195</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>['HNRNPK HNRPK']</t>
+          <t>['LDHB']</t>
         </is>
       </c>
       <c r="D310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311">
@@ -5951,16 +5951,16 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>P62829</t>
+          <t>Q02241</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>['RPL23']</t>
+          <t>['KIF23 KNSL5 MKLP1']</t>
         </is>
       </c>
       <c r="D311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
@@ -5969,12 +5969,12 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>P09493</t>
+          <t>P35579</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>['TPM1 C15orf13 TMSA']</t>
+          <t>['MYH9']</t>
         </is>
       </c>
       <c r="D312" t="n">
@@ -5987,16 +5987,16 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>P06753</t>
+          <t>P61254</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>['TPM3']</t>
+          <t>['RPL26']</t>
         </is>
       </c>
       <c r="D313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314">
@@ -6005,12 +6005,12 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Q9Y230</t>
+          <t>Q9H0H5</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>['RUVBL2 INO80J TIP48 TIP49B CGI-46']</t>
+          <t>['RACGAP1 KIAA1478 MGCRACGAP']</t>
         </is>
       </c>
       <c r="D314" t="n">
@@ -6023,16 +6023,16 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>P62424</t>
+          <t>Q9Y266</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>['RPL7A SURF-3 SURF3']</t>
+          <t>['NUDC']</t>
         </is>
       </c>
       <c r="D315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
@@ -6041,16 +6041,16 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Q15019</t>
+          <t>Q96I25</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>['SEPT2 DIFF6 KIAA0158 NEDD5']</t>
+          <t>['RBM17 SPF45']</t>
         </is>
       </c>
       <c r="D316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
@@ -6059,12 +6059,12 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Q01105</t>
+          <t>P06753</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>['SET']</t>
+          <t>['TPM3']</t>
         </is>
       </c>
       <c r="D317" t="n">
@@ -6077,16 +6077,16 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>P09651</t>
+          <t>P27105</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>['HNRNPA1 HNRPA1']</t>
+          <t>['STOM BND7 EPB72']</t>
         </is>
       </c>
       <c r="D318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
@@ -6095,16 +6095,16 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>P10599</t>
+          <t>P62081</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>['TXN TRDX TRX TRX1']</t>
+          <t>['RPS7']</t>
         </is>
       </c>
       <c r="D319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
@@ -6113,16 +6113,16 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>P68363</t>
+          <t>P62847</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>['TUBA1B']</t>
+          <t>['RPS24']</t>
         </is>
       </c>
       <c r="D320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321">
@@ -6131,16 +6131,16 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Q13885</t>
+          <t>P62857</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>['TUBB2A TUBB2']</t>
+          <t>['RPS28']</t>
         </is>
       </c>
       <c r="D321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322">
@@ -6149,12 +6149,12 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>P02786</t>
+          <t>Q9Y230</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>['TFRC']</t>
+          <t>['RUVBL2 INO80J TIP48 TIP49B CGI-46']</t>
         </is>
       </c>
       <c r="D322" t="n">
@@ -6167,16 +6167,16 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>P49368</t>
+          <t>Q16181</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>['CCT3 CCTG TRIC5']</t>
+          <t>['SEPT7 CDC10']</t>
         </is>
       </c>
       <c r="D323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
@@ -6185,16 +6185,16 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>P17987</t>
+          <t>P68371</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>['TCP1 CCT1 CCTA']</t>
+          <t>['TUBB4B TUBB2C']</t>
         </is>
       </c>
       <c r="D324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
@@ -6203,12 +6203,12 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Q07021</t>
+          <t>Q13885</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>['C1QBP GC1QBP HABP1 SF2P32']</t>
+          <t>['TUBB2A TUBB2']</t>
         </is>
       </c>
       <c r="D325" t="n">
@@ -6221,12 +6221,12 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>P06576</t>
+          <t>Q99832</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>['ATP5F1B ATP5B ATPMB ATPSB']</t>
+          <t>['CCT7 CCTH NIP7-1']</t>
         </is>
       </c>
       <c r="D326" t="n">
@@ -6239,16 +6239,16 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>P30101</t>
+          <t>Q9HB71</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>['PDIA3 ERP57 ERP60 GRP58']</t>
+          <t>['CACYBP S100A6BP SIP PNAS-107']</t>
         </is>
       </c>
       <c r="D327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
@@ -6257,12 +6257,12 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Q8NBM4</t>
+          <t>P37802</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>['UBAC2 PHGDHL1 PSEC0110']</t>
+          <t>['TAGLN2 KIAA0120 CDABP0035']</t>
         </is>
       </c>
       <c r="D328" t="n">
@@ -6275,16 +6275,16 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>P62851</t>
+          <t>P24534</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>['RPS25']</t>
+          <t>['EEF1B2 EEF1B EF1B']</t>
         </is>
       </c>
       <c r="D329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
@@ -6293,12 +6293,12 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>P05386</t>
+          <t>Q14019</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>['RPLP1 RRP1']</t>
+          <t>['COTL1 CLP']</t>
         </is>
       </c>
       <c r="D330" t="n">
@@ -6311,16 +6311,16 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>P61586</t>
+          <t>P62861</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>['RHOA ARH12 ARHA RHO12']</t>
+          <t>['FAU']</t>
         </is>
       </c>
       <c r="D331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
@@ -6365,16 +6365,16 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Q95365</t>
+          <t>P07355</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>['HLA-B HLAB']</t>
+          <t>['ANXA2 ANX2 ANX2L4 CAL1H LPC2D']</t>
         </is>
       </c>
       <c r="D334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335">
@@ -6383,16 +6383,16 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>P07355</t>
+          <t>P09525</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>['ANXA2 ANX2 ANX2L4 CAL1H LPC2D']</t>
+          <t>['ANXA4 ANX4']</t>
         </is>
       </c>
       <c r="D335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
@@ -6401,16 +6401,16 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>P04083</t>
+          <t>Q15758</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>['ANXA1 ANX1 LPC1']</t>
+          <t>['SLC1A5 ASCT2 M7V1 RDR RDRC']</t>
         </is>
       </c>
       <c r="D336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337">
@@ -6419,16 +6419,16 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>P01891</t>
+          <t>P63104</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>['HLA-A HLAA']</t>
+          <t>['YWHAZ']</t>
         </is>
       </c>
       <c r="D337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338">
@@ -6455,16 +6455,16 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>P07237</t>
+          <t>Q460N5</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>['P4HB ERBA2L PDI PDIA1 PO4DB']</t>
+          <t>['PARP14 BAL2 KIAA1268']</t>
         </is>
       </c>
       <c r="D339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340">
@@ -6473,12 +6473,12 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>O14818</t>
+          <t>P62826</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>['PSMA7 HSPC']</t>
+          <t>['RAN ARA24 OK/SW-cl.81']</t>
         </is>
       </c>
       <c r="D340" t="n">
@@ -6491,16 +6491,16 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>P49207</t>
+          <t>P52292</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>['RPL34']</t>
+          <t>['KPNA2 RCH1 SRP1']</t>
         </is>
       </c>
       <c r="D341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342">
@@ -6509,12 +6509,12 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>P18077</t>
+          <t>P50395</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>['RPL35A GIG33']</t>
+          <t>['GDI2 RABGDIB']</t>
         </is>
       </c>
       <c r="D342" t="n">
@@ -6527,12 +6527,12 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>P51149</t>
+          <t>Q9H4A6</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>['RAB7A RAB7']</t>
+          <t>['GOLPH3 GPP34']</t>
         </is>
       </c>
       <c r="D343" t="n">
@@ -6545,12 +6545,12 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>P04899</t>
+          <t>P62805</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>['GNAI2 GNAI2B']</t>
+          <t>['HIST1H4A H4/A H4FA', 'HIST1H4B H4/I H4FI', 'HIST1H4C H4/G H4FG', 'HIST1H4D H4/B H4FB', 'HIST1H4E H4/J H4FJ', 'HIST1H4F H4/C H4FC', 'HIST1H4H H4/H H4FH', 'HIST1H4I H4/M H4FM', 'HIST1H4J H4/E H4FE', 'HIST1H4K H4/D H4FD', 'HIST1H4L H4/K H4FK', 'HIST2H4A H4/N H4F2 H4FN HIST2H4', 'HIST2H4B H4/O H4FO', 'HIST4H4']</t>
         </is>
       </c>
       <c r="D344" t="n">
@@ -6563,16 +6563,16 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>P06396</t>
+          <t>P14625</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>['GSN']</t>
+          <t>['HSP90B1 GRP94 TRA1']</t>
         </is>
       </c>
       <c r="D345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346">
@@ -6581,16 +6581,16 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>P52565</t>
+          <t>P31327</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>['ARHGDIA GDIA1']</t>
+          <t>['CPS1']</t>
         </is>
       </c>
       <c r="D346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347">
@@ -6599,12 +6599,12 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>P12277</t>
+          <t>P68104</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>['CKB CKBB']</t>
+          <t>['EEF1A1 EEF1A EF1A LENG7']</t>
         </is>
       </c>
       <c r="D347" t="n">
@@ -6617,12 +6617,12 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>P10412</t>
+          <t>P11166</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>['HIST1H1E H1F4']</t>
+          <t>['SLC2A1 GLUT1']</t>
         </is>
       </c>
       <c r="D348" t="n">
@@ -6635,12 +6635,12 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>P12259</t>
+          <t>P04264</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>['F5']</t>
+          <t>['KRT1 KRTA']</t>
         </is>
       </c>
       <c r="D349" t="n">
@@ -6653,16 +6653,16 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>P13929</t>
+          <t>P62873</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>['ENO3']</t>
+          <t>['GNB1']</t>
         </is>
       </c>
       <c r="D350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
@@ -6671,12 +6671,12 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>P31327</t>
+          <t>P04406</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>['CPS1']</t>
+          <t>['GAPDH GAPD CDABP0047 OK/SW-cl.12']</t>
         </is>
       </c>
       <c r="D351" t="n">
@@ -6689,12 +6689,12 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>P04264</t>
+          <t>O15360</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>['KRT1 KRTA']</t>
+          <t>['FANCA FAA FACA FANCH']</t>
         </is>
       </c>
       <c r="D352" t="n">
